--- a/biology/Zoologie/Acanthophis/Acanthophis.xlsx
+++ b/biology/Zoologie/Acanthophis/Acanthophis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthophis est un genre de serpents de la famille des Elapidae[1]. Communément appelés vipères de la mort et death adders par les anglophones, ils sont parmi les serpents les plus venimeux au monde.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthophis est un genre de serpents de la famille des Elapidae. Communément appelés vipères de la mort et death adders par les anglophones, ils sont parmi les serpents les plus venimeux au monde.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les neuf espèces de ce genre se rencontrent en Australie, en Nouvelle-Guinée et aux Moluques[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les neuf espèces de ce genre se rencontrent en Australie, en Nouvelle-Guinée et aux Moluques.
 Ces serpents vivent majoritairement dans les zones boisées, broussailles et dans les landes (fougères, herbes basses, etc).
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acanthophis ont un corps court et robuste, une tête de forme triangulaire et de petites écailles sous les yeux. Ils mesurent jusqu'à 740 mm de long.
 Bien que les Acanthophis ressemblent à des vipères, ils font partie de la famille des Elapidae et sont proches des cobras, mambas et serpents corail. 
@@ -577,7 +593,9 @@
           <t>Chasse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à la plupart des autres serpents, les Acanthophis ne recherchent pas activement leurs proies mais se placent plutôt en embuscade pour les attirer vers eux. 
 Lorsqu'ils ont faim, ils s'enterrent dans le sol, le sable ou sous un tas de feuilles mortes, en fonction de leur environnement. La seule partie d'eux-mêmes qu'ils exposent est leur tête et leur queue, de façon générale très bien camouflées. Au bout de la queue se trouve un leurre caudal qu'ils placent en face de leur tête et qu'ils secouent très rapidement de manière qu'il soit confondu avec une larve ou un ver. Des oiseaux ou des mammifères peu méfiants finiront par tenter de saisir ce facile déjeuner. Ce n'est qu'à ce moment-là que le serpent va frapper. 
@@ -609,7 +627,9 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acanthophis sont très venimeux, ils injectent en moyenne 40 à 100 mg d'un venin très toxique (la DL50 est de 0,4 à 0,5 mg par kg de poids), ce qui en fait l'un des serpents les plus venimeux au monde (classé dans le "top 10" par le CSL[réf. souhaitée]). 
 Son venin est neurotoxique, ne contenant ni hémotoxine ni myotoxine.
@@ -644,9 +664,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (19 décembre 2015)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (19 décembre 2015) :
 Acanthophis antarcticus (Shaw, 1802)
 Acanthophis ceramensis Günther, 1863
 Acanthophis cryptamydros Maddock, Ellis, Doughty, Smith &amp; Wüster, 2015
@@ -683,9 +705,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nombre d'espèces de ce genre est discuté. Traditionnellement, seulement A. antarcticus, A.  praelongus et A. pyrrhus étaient reconnues. En 1998, cinq nouvelles espèces ont été décrites (A. barnetti, A. crotalusei, A. cummingi, A.wellsei et A. woolfi)[3] et en 2002 trois autres ont été ajoutées (A. groenveldi, A. macgregori et A. yuwoni)[4]. Ces descriptions ont été accueillies avec scepticisme[5],[6],[7], et seulement A. wellsi, où une description détaillée a été publiée[5], a été largement reconnue. La plus grande confusion existe sur les Acanthophis de Nouvelle-Guinée, ils ont été classés tantôt dans A. antarcticus, tantôt dans A. praelongus. En 2005, on a démontré qu'aucun des deux classements n'était bon[8] et que les Acanthophis de Nouvelle-Guinée devaient se répartir en deux principales espèces: A. laevis aux écailles plutôt lisses (et dont feraient partie les Acanthophis de l'île de Céram en Indonésie), et A. rugosus aux écailles rugueuses. Cette dernière peut être divisée en deux sous-espèces, une, A. rugosus stricto sensu, vivant au Sud de la Nouvelle-Guinée, et une deuxième, A. hawkei, dans le Nord du Queensland et le Territoire du Nord en Australie. Il est probable que certaines de ces espèces comme A. laevis devront être éclatées car regroupant des individus de forme et aux écailles trop différentes.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre d'espèces de ce genre est discuté. Traditionnellement, seulement A. antarcticus, A.  praelongus et A. pyrrhus étaient reconnues. En 1998, cinq nouvelles espèces ont été décrites (A. barnetti, A. crotalusei, A. cummingi, A.wellsei et A. woolfi) et en 2002 trois autres ont été ajoutées (A. groenveldi, A. macgregori et A. yuwoni). Ces descriptions ont été accueillies avec scepticisme et seulement A. wellsi, où une description détaillée a été publiée, a été largement reconnue. La plus grande confusion existe sur les Acanthophis de Nouvelle-Guinée, ils ont été classés tantôt dans A. antarcticus, tantôt dans A. praelongus. En 2005, on a démontré qu'aucun des deux classements n'était bon et que les Acanthophis de Nouvelle-Guinée devaient se répartir en deux principales espèces: A. laevis aux écailles plutôt lisses (et dont feraient partie les Acanthophis de l'île de Céram en Indonésie), et A. rugosus aux écailles rugueuses. Cette dernière peut être divisée en deux sous-espèces, une, A. rugosus stricto sensu, vivant au Sud de la Nouvelle-Guinée, et une deuxième, A. hawkei, dans le Nord du Queensland et le Territoire du Nord en Australie. Il est probable que certaines de ces espèces comme A. laevis devront être éclatées car regroupant des individus de forme et aux écailles trop différentes.
 </t>
         </is>
       </c>
@@ -714,7 +738,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthophis, du grec ancien ἄκανθος, acanthos, « épine », et ὄφις, ophis, « serpent », fait référence au fait que la queue de ces espèces se termine en aiguille.
 </t>
@@ -745,7 +771,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Daudin, 1803 : Histoire Naturelle, Générale et Particulière des Reptiles; ouvrage faisant suit à l'Histoire naturelle générale et particulière, composée par Leclerc de Buffon; et rédigee par C.S. Sonnini, membre de plusieurs sociétés savantes, vol. 5, F. Dufart, Paris, p. 1-365 (texte intégral).</t>
         </is>
